--- a/data/raw/porometer/metadata_porometer.xlsx
+++ b/data/raw/porometer/metadata_porometer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gretchen/GitHub/CApoppy/data/raw/porometer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CF7C006-DF13-5946-99A4-C83C5BF7D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EBE752-035C-0643-994F-FBD10244DD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18620" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{39D7667E-8FAB-5548-A736-5910347AF4EB}"/>
+    <workbookView xWindow="6920" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{39D7667E-8FAB-5548-A736-5910347AF4EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Gas Exchange Variables</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>These measurements are crucial for understanding how plants regulate water loss relative to carbon gain and how they respond to environmental factors like drought, humidity, temperature, and light.</t>
+  </si>
+  <si>
+    <t>September measurments - top really means the top of the leaf.  Bottom really means the bottom of the leaf</t>
   </si>
 </sst>
 </file>
@@ -602,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E661E947-4298-CC49-87BD-83B481748D42}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -814,6 +817,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
